--- a/twe/licenses/twe-includes.xlsx
+++ b/twe/licenses/twe-includes.xlsx
@@ -626,9 +626,6 @@
     <t>5.0.6</t>
   </si>
   <si>
-    <t>1.1-1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -728,6 +725,9 @@
    1. docbook-dtd
 </t>
     </r>
+  </si>
+  <si>
+    <t>1.2-1</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1569,22 +1569,22 @@
     </row>
     <row r="8" spans="1:11" s="36" customFormat="1" ht="47.25" customHeight="1">
       <c r="A8" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="35" t="s">
+      <c r="F8" s="35" t="s">
         <v>112</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>113</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>90</v>
@@ -1598,17 +1598,17 @@
     </row>
     <row r="9" spans="1:11" s="38" customFormat="1" ht="67.5">
       <c r="A9" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>106</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>107</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="12">
@@ -1618,13 +1618,13 @@
         <v>38993</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J9" s="31">
         <v>39484</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="91.5" customHeight="1">
@@ -1801,25 +1801,25 @@
     </row>
     <row r="16" spans="1:11" ht="45" customHeight="1">
       <c r="A16" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>46</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="12"/>
@@ -1844,7 +1844,7 @@
         <v>46</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="12"/>
